--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-7870_CharRangeTests.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-7870_CharRangeTests.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkamalov\.openl\user-workspace\DEFAULT\CharRangeTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191E09FA-8CAF-4071-A58A-1ECC817B387A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FAD426-4783-4776-8D25-C973D0838831}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="55">
   <si>
     <t>C1</t>
   </si>
@@ -164,6 +164,27 @@
   </si>
   <si>
     <t>Test getCharValueRule getCharValueRuleTest</t>
+  </si>
+  <si>
+    <t>A-D</t>
+  </si>
+  <si>
+    <t>M-Z</t>
+  </si>
+  <si>
+    <t>SmartLookup String getCharValueRule3(char value, char tier)</t>
+  </si>
+  <si>
+    <t>Test getCharValueRule3 getCharValueRule3Test</t>
+  </si>
+  <si>
+    <t>tier</t>
+  </si>
+  <si>
+    <t>Tier</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -295,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -316,6 +337,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -662,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05770BFD-7FD0-474C-B875-B44EB075EE5E}">
-  <dimension ref="C4:D101"/>
+  <dimension ref="B4:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44:C53"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="K110" sqref="K110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,10 +710,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
@@ -793,10 +828,10 @@
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="16"/>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="5" t="s">
@@ -911,10 +946,10 @@
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="10"/>
+      <c r="D42" s="16"/>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43" s="3" t="s">
@@ -1005,10 +1040,10 @@
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="8"/>
+      <c r="D57" s="14"/>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" s="7" t="s">
@@ -1107,10 +1142,10 @@
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="8"/>
+      <c r="D73" s="14"/>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" s="7" t="s">
@@ -1209,10 +1244,10 @@
       </c>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D89" s="8"/>
+      <c r="D89" s="14"/>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" s="7" t="s">
@@ -1270,7 +1305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C97" s="7" t="s">
         <v>40</v>
       </c>
@@ -1278,7 +1313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C98" s="7" t="s">
         <v>43</v>
       </c>
@@ -1286,7 +1321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C99" s="7" t="s">
         <v>33</v>
       </c>
@@ -1294,7 +1329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C100" s="7" t="s">
         <v>42</v>
       </c>
@@ -1302,7 +1337,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C101" s="7" t="s">
         <v>41</v>
       </c>
@@ -1310,8 +1345,131 @@
         <v>22</v>
       </c>
     </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C105" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C106" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C107" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="8"/>
+      <c r="C111" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="8"/>
+      <c r="C112" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="8"/>
+      <c r="C113" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="8"/>
+      <c r="C114" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="8"/>
+      <c r="C115" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C111:E111"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="C89:D89"/>
     <mergeCell ref="C4:D4"/>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-7870_CharRangeTests.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-7870_CharRangeTests.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FAD426-4783-4776-8D25-C973D0838831}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{434D9239-CFA8-4B27-9E68-BC93998ECB5D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="12075" windowWidth="24915" xWindow="120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="120"/>
   </bookViews>
   <sheets>
-    <sheet name="Rules1" sheetId="4" r:id="rId1"/>
+    <sheet name="Rules1" r:id="rId1" sheetId="4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="71">
   <si>
     <t>C1</t>
   </si>
@@ -185,23 +185,72 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Rules String getCharValueRule5(char value)</t>
+  </si>
+  <si>
+    <t>B..C</t>
+  </si>
+  <si>
+    <t>D .. E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F .. G </t>
+  </si>
+  <si>
+    <t>&lt;=J</t>
+  </si>
+  <si>
+    <t>&lt;= L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  = N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt;= Y </t>
+  </si>
+  <si>
+    <t>&gt; W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;= U </t>
+  </si>
+  <si>
+    <t>Test getCharValueRule5 getCharValueRule5Test</t>
+  </si>
+  <si>
+    <t>&gt;= N</t>
+  </si>
+  <si>
+    <t>Т</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>&gt;= Y</t>
+  </si>
+  <si>
+    <t>&gt;= U</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="000000" theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="000000" theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="186"/>
@@ -215,14 +264,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="000000" theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="000000" theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -242,7 +291,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="8064A2" theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="22"/>
       </patternFill>
     </fill>
@@ -313,58 +362,59 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="18">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -381,10 +431,10 @@
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -419,7 +469,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,7 +521,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -576,7 +626,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -585,13 +635,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -601,7 +651,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -610,7 +660,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -619,7 +669,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -629,12 +679,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -665,7 +715,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -684,7 +734,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -696,24 +746,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05770BFD-7FD0-474C-B875-B44EB075EE5E}">
-  <dimension ref="B4:E118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05770BFD-7FD0-474C-B875-B44EB075EE5E}">
+  <dimension ref="B4:F149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="K110" sqref="K110"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="48.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="43.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="48.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="43.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
@@ -828,10 +878,10 @@
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="16"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="5" t="s">
@@ -946,10 +996,10 @@
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="16"/>
+      <c r="D42" s="17"/>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43" s="3" t="s">
@@ -1040,10 +1090,10 @@
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="14"/>
+      <c r="D57" s="15"/>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" s="7" t="s">
@@ -1142,10 +1192,10 @@
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="14"/>
+      <c r="D73" s="15"/>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" s="7" t="s">
@@ -1244,10 +1294,10 @@
       </c>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D89" s="14"/>
+      <c r="D89" s="15"/>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" s="7" t="s">
@@ -1346,11 +1396,11 @@
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C105" s="12" t="s">
+      <c r="C105" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C106" s="10" t="s">
@@ -1394,11 +1444,11 @@
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" s="8"/>
-      <c r="C111" s="13" t="s">
+      <c r="C111" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="8"/>
@@ -1466,8 +1516,216 @@
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
     </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C119" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D119" s="17"/>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C120" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C123" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C124" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C125" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C126" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C127" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C128" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C129" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C130" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C131" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C132" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C137" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D137" s="15"/>
+    </row>
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C138" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C139" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C140" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C141" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C142" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C143" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C144" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C145" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C146" t="s" s="12">
+        <v>33</v>
+      </c>
+      <c r="D146" t="s" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C147" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C148" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C137:D137"/>
     <mergeCell ref="C105:E105"/>
     <mergeCell ref="C111:E111"/>
     <mergeCell ref="C73:D73"/>
@@ -1477,6 +1735,6 @@
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C57:D57"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>